--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.400360930914</v>
+        <v>327.2855736344005</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.8756942551906</v>
+        <v>447.8065606670555</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.9198385228719</v>
+        <v>405.0685310174463</v>
       </c>
       <c r="AD2" t="n">
-        <v>229400.3609309141</v>
+        <v>327285.5736344004</v>
       </c>
       <c r="AE2" t="n">
-        <v>313875.6942551906</v>
+        <v>447806.5606670555</v>
       </c>
       <c r="AF2" t="n">
         <v>8.000659258975527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>283919.8385228719</v>
+        <v>405068.5310174463</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.7582745996215</v>
+        <v>279.8208006139782</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.3721310850959</v>
+        <v>382.8631642225153</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.3317031360097</v>
+        <v>346.3232411809435</v>
       </c>
       <c r="AD3" t="n">
-        <v>191758.2745996215</v>
+        <v>279820.8006139782</v>
       </c>
       <c r="AE3" t="n">
-        <v>262372.1310850959</v>
+        <v>382863.1642225152</v>
       </c>
       <c r="AF3" t="n">
         <v>9.481300745214503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>237331.7031360097</v>
+        <v>346323.2411809434</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.2039932886638</v>
+        <v>257.5121634514495</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.1948095396499</v>
+        <v>352.3395026689658</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.7937610503334</v>
+        <v>318.7127150459427</v>
       </c>
       <c r="AD4" t="n">
-        <v>179203.9932886638</v>
+        <v>257512.1634514495</v>
       </c>
       <c r="AE4" t="n">
-        <v>245194.8095396499</v>
+        <v>352339.5026689658</v>
       </c>
       <c r="AF4" t="n">
         <v>1.008273036182128e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>221793.7610503334</v>
+        <v>318712.7150459428</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.0661832880813</v>
+        <v>246.5526777915952</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.6380077002193</v>
+        <v>337.3442508907771</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.3855381934725</v>
+        <v>305.1485890514915</v>
       </c>
       <c r="AD5" t="n">
-        <v>178066.1832880813</v>
+        <v>246552.6777915953</v>
       </c>
       <c r="AE5" t="n">
-        <v>243638.0077002193</v>
+        <v>337344.2508907771</v>
       </c>
       <c r="AF5" t="n">
         <v>1.036599714186456e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>220385.5381934725</v>
+        <v>305148.5890514915</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.549703277461</v>
+        <v>245.8237080214659</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.2488957953419</v>
+        <v>336.34684229141</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.3697029335466</v>
+        <v>304.246371728976</v>
       </c>
       <c r="AD6" t="n">
-        <v>167549.703277461</v>
+        <v>245823.7080214659</v>
       </c>
       <c r="AE6" t="n">
-        <v>229248.8957953419</v>
+        <v>336346.84229141</v>
       </c>
       <c r="AF6" t="n">
         <v>1.048466784184439e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>207369.7029335466</v>
+        <v>304246.371728976</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.9885065270184</v>
+        <v>245.2625112710233</v>
       </c>
       <c r="AB7" t="n">
-        <v>228.4810416431335</v>
+        <v>335.5789881392016</v>
       </c>
       <c r="AC7" t="n">
-        <v>206.6751317039346</v>
+        <v>303.551800499364</v>
       </c>
       <c r="AD7" t="n">
-        <v>166988.5065270184</v>
+        <v>245262.5112710233</v>
       </c>
       <c r="AE7" t="n">
-        <v>228481.0416431335</v>
+        <v>335578.9881392016</v>
       </c>
       <c r="AF7" t="n">
         <v>1.058134016422512e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>206675.1317039346</v>
+        <v>303551.800499364</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>166.4470730575212</v>
+        <v>244.7210778015261</v>
       </c>
       <c r="AB8" t="n">
-        <v>227.7402284838089</v>
+        <v>334.8381749798771</v>
       </c>
       <c r="AC8" t="n">
-        <v>206.005020712798</v>
+        <v>302.8816895082274</v>
       </c>
       <c r="AD8" t="n">
-        <v>166447.0730575212</v>
+        <v>244721.0778015261</v>
       </c>
       <c r="AE8" t="n">
-        <v>227740.228483809</v>
+        <v>334838.1749798771</v>
       </c>
       <c r="AF8" t="n">
         <v>1.068922261875224e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>206005.020712798</v>
+        <v>302881.6895082274</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.4241408987492</v>
+        <v>233.8764699834823</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.3406075755959</v>
+        <v>320.0001041329058</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.7389776596841</v>
+        <v>289.4597433175231</v>
       </c>
       <c r="AD9" t="n">
-        <v>165424.1408987492</v>
+        <v>233876.4699834823</v>
       </c>
       <c r="AE9" t="n">
-        <v>226340.6075755959</v>
+        <v>320000.1041329058</v>
       </c>
       <c r="AF9" t="n">
         <v>1.083169978216124e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.47916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>204738.9776596841</v>
+        <v>289459.7433175232</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.3981603226237</v>
+        <v>233.951974633842</v>
       </c>
       <c r="AB10" t="n">
-        <v>226.3050598051589</v>
+        <v>320.1034129265581</v>
       </c>
       <c r="AC10" t="n">
-        <v>204.706822518566</v>
+        <v>289.553192464904</v>
       </c>
       <c r="AD10" t="n">
-        <v>165398.1603226237</v>
+        <v>233951.974633842</v>
       </c>
       <c r="AE10" t="n">
-        <v>226305.0598051589</v>
+        <v>320103.4129265581</v>
       </c>
       <c r="AF10" t="n">
         <v>1.081663240024405e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>204706.822518566</v>
+        <v>289553.192464904</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>165.3402292660178</v>
+        <v>233.8940435772361</v>
       </c>
       <c r="AB11" t="n">
-        <v>226.2257959777729</v>
+        <v>320.024149099172</v>
       </c>
       <c r="AC11" t="n">
-        <v>204.6351235196182</v>
+        <v>289.4814934659562</v>
       </c>
       <c r="AD11" t="n">
-        <v>165340.2292660178</v>
+        <v>233894.0435772361</v>
       </c>
       <c r="AE11" t="n">
-        <v>226225.7959777729</v>
+        <v>320024.149099172</v>
       </c>
       <c r="AF11" t="n">
         <v>1.082091153670853e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>204635.1235196182</v>
+        <v>289481.4934659562</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.0162483839426</v>
+        <v>288.1411907349181</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.0392992497754</v>
+        <v>394.247489055691</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.7899345495384</v>
+        <v>356.6210620300411</v>
       </c>
       <c r="AD2" t="n">
-        <v>201016.2483839426</v>
+        <v>288141.1907349181</v>
       </c>
       <c r="AE2" t="n">
-        <v>275039.2992497754</v>
+        <v>394247.489055691</v>
       </c>
       <c r="AF2" t="n">
         <v>9.647102424136353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>248789.9345495384</v>
+        <v>356621.0620300411</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.7709406722948</v>
+        <v>253.1138486466735</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.497555494344</v>
+        <v>346.3215343131197</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.5448063384726</v>
+        <v>313.269093143705</v>
       </c>
       <c r="AD3" t="n">
-        <v>175770.9406722948</v>
+        <v>253113.8486466735</v>
       </c>
       <c r="AE3" t="n">
-        <v>240497.555494344</v>
+        <v>346321.5343131197</v>
       </c>
       <c r="AF3" t="n">
         <v>1.111552108922333e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217544.8063384726</v>
+        <v>313269.093143705</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.1745338290149</v>
+        <v>241.584761611098</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.6308400540132</v>
+        <v>330.5469288036304</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.1923879506869</v>
+        <v>298.9999938442385</v>
       </c>
       <c r="AD4" t="n">
-        <v>164174.5338290149</v>
+        <v>241584.761611098</v>
       </c>
       <c r="AE4" t="n">
-        <v>224630.8400540132</v>
+        <v>330546.9288036303</v>
       </c>
       <c r="AF4" t="n">
         <v>1.165007903143356e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>203192.3879506869</v>
+        <v>298999.9938442385</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.0488746141546</v>
+        <v>230.7453988572061</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.0906634556624</v>
+        <v>315.7160344848277</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.7992036452308</v>
+        <v>285.5845392639267</v>
       </c>
       <c r="AD5" t="n">
-        <v>163048.8746141546</v>
+        <v>230745.398857206</v>
       </c>
       <c r="AE5" t="n">
-        <v>223090.6634556624</v>
+        <v>315716.0344848277</v>
       </c>
       <c r="AF5" t="n">
         <v>1.197387368924903e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>201799.2036452308</v>
+        <v>285584.5392639267</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.3940291882224</v>
+        <v>230.0905534312739</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.1946750541612</v>
+        <v>314.8200460833266</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.988727119241</v>
+        <v>284.7740627379369</v>
       </c>
       <c r="AD6" t="n">
-        <v>162394.0291882224</v>
+        <v>230090.5534312739</v>
       </c>
       <c r="AE6" t="n">
-        <v>222194.6750541612</v>
+        <v>314820.0460833266</v>
       </c>
       <c r="AF6" t="n">
         <v>1.209831371354593e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>200988.727119241</v>
+        <v>284774.0627379369</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.8220646652182</v>
+        <v>229.5185889082697</v>
       </c>
       <c r="AB7" t="n">
-        <v>221.4120879604934</v>
+        <v>314.0374589896587</v>
       </c>
       <c r="AC7" t="n">
-        <v>200.2808290394246</v>
+        <v>284.0661646581206</v>
       </c>
       <c r="AD7" t="n">
-        <v>161822.0646652182</v>
+        <v>229518.5889082697</v>
       </c>
       <c r="AE7" t="n">
-        <v>221412.0879604934</v>
+        <v>314037.4589896587</v>
       </c>
       <c r="AF7" t="n">
         <v>1.22027721123198e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>200280.8290394247</v>
+        <v>284066.1646581206</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>151.3262622429688</v>
+        <v>228.702324606271</v>
       </c>
       <c r="AB8" t="n">
-        <v>207.0512680442559</v>
+        <v>312.9206101606252</v>
       </c>
       <c r="AC8" t="n">
-        <v>187.2905856204509</v>
+        <v>283.0559063138226</v>
       </c>
       <c r="AD8" t="n">
-        <v>151326.2622429688</v>
+        <v>228702.3246062711</v>
       </c>
       <c r="AE8" t="n">
-        <v>207051.2680442559</v>
+        <v>312920.6101606252</v>
       </c>
       <c r="AF8" t="n">
         <v>1.232826727195785e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>187290.5856204509</v>
+        <v>283055.9063138225</v>
       </c>
     </row>
   </sheetData>
@@ -5411,28 +5411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.7739193276754</v>
+        <v>219.1949716980557</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.4002604505594</v>
+        <v>299.9122304768035</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.3199548918383</v>
+        <v>271.2890281296451</v>
       </c>
       <c r="AD2" t="n">
-        <v>153773.9193276754</v>
+        <v>219194.9716980557</v>
       </c>
       <c r="AE2" t="n">
-        <v>210400.2604505594</v>
+        <v>299912.2304768035</v>
       </c>
       <c r="AF2" t="n">
         <v>1.712134099580358e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>190319.9548918382</v>
+        <v>271289.0281296451</v>
       </c>
     </row>
     <row r="3">
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.4661118785042</v>
+        <v>198.5658479279389</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.9284194333545</v>
+        <v>271.6865532418342</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.3247246664453</v>
+        <v>245.7571699149855</v>
       </c>
       <c r="AD3" t="n">
-        <v>142466.1118785042</v>
+        <v>198565.8479279389</v>
       </c>
       <c r="AE3" t="n">
-        <v>194928.4194333545</v>
+        <v>271686.5532418342</v>
       </c>
       <c r="AF3" t="n">
         <v>1.819699360685773e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>176324.7246664453</v>
+        <v>245757.1699149855</v>
       </c>
     </row>
     <row r="4">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.3122095237835</v>
+        <v>198.4119455732183</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.7178434419332</v>
+        <v>271.4759772504129</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.1342457520998</v>
+        <v>245.56669100064</v>
       </c>
       <c r="AD4" t="n">
-        <v>142312.2095237835</v>
+        <v>198411.9455732183</v>
       </c>
       <c r="AE4" t="n">
-        <v>194717.8434419332</v>
+        <v>271475.9772504129</v>
       </c>
       <c r="AF4" t="n">
         <v>1.834500399523485e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176134.2457520998</v>
+        <v>245566.69100064</v>
       </c>
     </row>
   </sheetData>
@@ -5920,28 +5920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.3194399578199</v>
+        <v>245.0785157591648</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.6703275966798</v>
+        <v>335.3272373625678</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.5600366822665</v>
+        <v>303.3240764635176</v>
       </c>
       <c r="AD2" t="n">
-        <v>169319.4399578199</v>
+        <v>245078.5157591648</v>
       </c>
       <c r="AE2" t="n">
-        <v>231670.3275966799</v>
+        <v>335327.2373625678</v>
       </c>
       <c r="AF2" t="n">
         <v>1.367339642508485e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>209560.0366822665</v>
+        <v>303324.0764635176</v>
       </c>
     </row>
     <row r="3">
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.2910198744467</v>
+        <v>213.669010773798</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.5300714133177</v>
+        <v>292.3513669520476</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.2963242469196</v>
+        <v>264.4497628079509</v>
       </c>
       <c r="AD3" t="n">
-        <v>147291.0198744467</v>
+        <v>213669.010773798</v>
       </c>
       <c r="AE3" t="n">
-        <v>201530.0714133177</v>
+        <v>292351.3669520476</v>
       </c>
       <c r="AF3" t="n">
         <v>1.497405698688337e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>182296.3242469196</v>
+        <v>264449.7628079509</v>
       </c>
     </row>
     <row r="4">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.0271590326663</v>
+        <v>212.3036647055324</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.8008012519895</v>
+        <v>290.4832402266302</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.7320932027421</v>
+        <v>262.7599274752744</v>
       </c>
       <c r="AD4" t="n">
-        <v>146027.1590326663</v>
+        <v>212303.6647055324</v>
       </c>
       <c r="AE4" t="n">
-        <v>199800.8012519895</v>
+        <v>290483.2402266302</v>
       </c>
       <c r="AF4" t="n">
         <v>1.547138010051094e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>180732.0932027421</v>
+        <v>262759.9274752744</v>
       </c>
     </row>
     <row r="5">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.6715578725811</v>
+        <v>211.9480635454472</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.3142520567452</v>
+        <v>289.9966910313859</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.2919795798156</v>
+        <v>262.319813852348</v>
       </c>
       <c r="AD5" t="n">
-        <v>145671.5578725811</v>
+        <v>211948.0635454472</v>
       </c>
       <c r="AE5" t="n">
-        <v>199314.2520567452</v>
+        <v>289996.6910313859</v>
       </c>
       <c r="AF5" t="n">
         <v>1.561111522123367e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>180291.9795798156</v>
+        <v>262319.813852348</v>
       </c>
     </row>
   </sheetData>
@@ -6535,28 +6535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.1244573587316</v>
+        <v>204.7816744704857</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.7244644128969</v>
+        <v>280.1913213402559</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.42655061636</v>
+        <v>253.4502548826135</v>
       </c>
       <c r="AD2" t="n">
-        <v>140124.4573587316</v>
+        <v>204781.6744704857</v>
       </c>
       <c r="AE2" t="n">
-        <v>191724.4644128969</v>
+        <v>280191.3213402558</v>
       </c>
       <c r="AF2" t="n">
         <v>2.071703283221003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>173426.55061636</v>
+        <v>253450.2548826135</v>
       </c>
     </row>
     <row r="3">
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.2664768969289</v>
+        <v>194.9910138163875</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.2363406416613</v>
+        <v>266.7953074998617</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.2257144471461</v>
+        <v>241.3327378017187</v>
       </c>
       <c r="AD3" t="n">
-        <v>130266.4768969289</v>
+        <v>194991.0138163875</v>
       </c>
       <c r="AE3" t="n">
-        <v>178236.3406416613</v>
+        <v>266795.3074998617</v>
       </c>
       <c r="AF3" t="n">
         <v>2.111934011534861e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>161225.7144471461</v>
+        <v>241332.7378017187</v>
       </c>
     </row>
   </sheetData>
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.8557517738265</v>
+        <v>300.1687902555656</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.2386301098322</v>
+        <v>410.7041813400823</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.4432240082202</v>
+        <v>371.5071506999229</v>
       </c>
       <c r="AD2" t="n">
-        <v>212855.7517738265</v>
+        <v>300168.7902555655</v>
       </c>
       <c r="AE2" t="n">
-        <v>291238.6301098322</v>
+        <v>410704.1813400823</v>
       </c>
       <c r="AF2" t="n">
         <v>9.200208380741624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>263443.2240082202</v>
+        <v>371507.1506999229</v>
       </c>
     </row>
     <row r="3">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.0874685392098</v>
+        <v>254.7588981298229</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.2988870029666</v>
+        <v>348.5723635904248</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.1742212960974</v>
+        <v>315.3051064338436</v>
       </c>
       <c r="AD3" t="n">
-        <v>177087.4685392098</v>
+        <v>254758.8981298229</v>
       </c>
       <c r="AE3" t="n">
-        <v>242298.8870029666</v>
+        <v>348572.3635904248</v>
       </c>
       <c r="AF3" t="n">
         <v>1.072003016459064e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>219174.2212960974</v>
+        <v>315305.1064338436</v>
       </c>
     </row>
     <row r="4">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.424514141998</v>
+        <v>243.0617783138303</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.3411182634752</v>
+        <v>332.5678482176857</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.739439608229</v>
+        <v>300.8280395457953</v>
       </c>
       <c r="AD4" t="n">
-        <v>165424.514141998</v>
+        <v>243061.7783138303</v>
       </c>
       <c r="AE4" t="n">
-        <v>226341.1182634752</v>
+        <v>332567.8482176856</v>
       </c>
       <c r="AF4" t="n">
         <v>1.123086326448451e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>204739.439608229</v>
+        <v>300828.0395457952</v>
       </c>
     </row>
     <row r="5">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.5596991434728</v>
+        <v>242.1969633153051</v>
       </c>
       <c r="AB5" t="n">
-        <v>225.1578402295487</v>
+        <v>331.3845701837591</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.6690919691188</v>
+        <v>299.7576919066851</v>
       </c>
       <c r="AD5" t="n">
-        <v>164559.6991434728</v>
+        <v>242196.9633153051</v>
       </c>
       <c r="AE5" t="n">
-        <v>225157.8402295487</v>
+        <v>331384.5701837591</v>
       </c>
       <c r="AF5" t="n">
         <v>1.143653504418479e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>203669.0919691188</v>
+        <v>299757.6919066851</v>
       </c>
     </row>
     <row r="6">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.6851764967265</v>
+        <v>231.5803575808085</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.9612797630547</v>
+        <v>316.8584618462392</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.5867295541635</v>
+        <v>286.6179349613723</v>
       </c>
       <c r="AD6" t="n">
-        <v>163685.1764967265</v>
+        <v>231580.3575808085</v>
       </c>
       <c r="AE6" t="n">
-        <v>223961.2797630547</v>
+        <v>316858.4618462392</v>
       </c>
       <c r="AF6" t="n">
         <v>1.166987855895112e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>202586.7295541635</v>
+        <v>286617.9349613723</v>
       </c>
     </row>
     <row r="7">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.1385134532907</v>
+        <v>231.0336945373727</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.2133112699548</v>
+        <v>316.1104933531393</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.9101461242645</v>
+        <v>285.9413515314733</v>
       </c>
       <c r="AD7" t="n">
-        <v>163138.5134532907</v>
+        <v>231033.6945373727</v>
       </c>
       <c r="AE7" t="n">
-        <v>223213.3112699548</v>
+        <v>316110.4933531393</v>
       </c>
       <c r="AF7" t="n">
         <v>1.177425891773518e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>201910.1461242645</v>
+        <v>285941.3515314733</v>
       </c>
     </row>
     <row r="8">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>162.1368020958136</v>
+        <v>230.0319831798956</v>
       </c>
       <c r="AB8" t="n">
-        <v>221.8427255982692</v>
+        <v>314.7399076814538</v>
       </c>
       <c r="AC8" t="n">
-        <v>200.670367225455</v>
+        <v>284.7015726326639</v>
       </c>
       <c r="AD8" t="n">
-        <v>162136.8020958136</v>
+        <v>230031.9831798956</v>
       </c>
       <c r="AE8" t="n">
-        <v>221842.7255982692</v>
+        <v>314739.9076814537</v>
       </c>
       <c r="AF8" t="n">
         <v>1.191351853327692e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>200670.367225455</v>
+        <v>284701.5726326639</v>
       </c>
     </row>
     <row r="9">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>162.2493096476031</v>
+        <v>230.1444907316851</v>
       </c>
       <c r="AB9" t="n">
-        <v>221.9966633941104</v>
+        <v>314.8938454772949</v>
       </c>
       <c r="AC9" t="n">
-        <v>200.8096134141142</v>
+        <v>284.840818821323</v>
       </c>
       <c r="AD9" t="n">
-        <v>162249.3096476031</v>
+        <v>230144.4907316851</v>
       </c>
       <c r="AE9" t="n">
-        <v>221996.6633941104</v>
+        <v>314893.8454772949</v>
       </c>
       <c r="AF9" t="n">
         <v>1.190187066340028e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>200809.6134141142</v>
+        <v>284840.818821323</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.6902364381378</v>
+        <v>192.9826995612556</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.079658907123</v>
+        <v>264.0474433354198</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.2748633904297</v>
+        <v>238.8471259364787</v>
       </c>
       <c r="AD2" t="n">
-        <v>128690.2364381378</v>
+        <v>192982.6995612556</v>
       </c>
       <c r="AE2" t="n">
-        <v>176079.658907123</v>
+        <v>264047.4433354198</v>
       </c>
       <c r="AF2" t="n">
         <v>2.311744389555241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159274.8633904297</v>
+        <v>238847.1259364787</v>
       </c>
     </row>
   </sheetData>
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.1634058975236</v>
+        <v>271.4252345310824</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.3487407818168</v>
+        <v>371.3759803216623</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.1694925388649</v>
+        <v>335.9323779892241</v>
       </c>
       <c r="AD2" t="n">
-        <v>185163.4058975236</v>
+        <v>271425.2345310824</v>
       </c>
       <c r="AE2" t="n">
-        <v>253348.7407818168</v>
+        <v>371375.9803216623</v>
       </c>
       <c r="AF2" t="n">
         <v>1.130090585167986e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>229169.4925388649</v>
+        <v>335932.377989224</v>
       </c>
     </row>
     <row r="3">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.4861722603656</v>
+        <v>238.1595571103281</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.9525051536472</v>
+        <v>325.8604128963216</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.8651081706352</v>
+        <v>294.7607524375554</v>
       </c>
       <c r="AD3" t="n">
-        <v>161486.1722603656</v>
+        <v>238159.5571103281</v>
       </c>
       <c r="AE3" t="n">
-        <v>220952.5051536472</v>
+        <v>325860.4128963216</v>
       </c>
       <c r="AF3" t="n">
         <v>1.277255200705001e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>199865.1081706352</v>
+        <v>294760.7524375554</v>
       </c>
     </row>
     <row r="4">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.941398777855</v>
+        <v>226.993185455301</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.838877924281</v>
+        <v>310.5820905723714</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.9532025575446</v>
+        <v>280.9405717529381</v>
       </c>
       <c r="AD4" t="n">
-        <v>159941.398777855</v>
+        <v>226993.185455301</v>
       </c>
       <c r="AE4" t="n">
-        <v>218838.877924281</v>
+        <v>310582.0905723714</v>
       </c>
       <c r="AF4" t="n">
         <v>1.332025133632532e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>197953.2025575446</v>
+        <v>280940.5717529382</v>
       </c>
     </row>
     <row r="5">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.316665494497</v>
+        <v>216.4357719796474</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.3016491158467</v>
+        <v>296.1369716947787</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.8033864634539</v>
+        <v>267.8740747471665</v>
       </c>
       <c r="AD5" t="n">
-        <v>149316.665494497</v>
+        <v>216435.7719796474</v>
       </c>
       <c r="AE5" t="n">
-        <v>204301.6491158467</v>
+        <v>296136.9716947787</v>
       </c>
       <c r="AF5" t="n">
         <v>1.357660445260697e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>184803.3864634539</v>
+        <v>267874.0747471665</v>
       </c>
     </row>
     <row r="6">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.8027610544603</v>
+        <v>215.9218675396107</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.5985023891251</v>
+        <v>295.433824968057</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.1673470734577</v>
+        <v>267.2380353571703</v>
       </c>
       <c r="AD6" t="n">
-        <v>148802.7610544603</v>
+        <v>215921.8675396107</v>
       </c>
       <c r="AE6" t="n">
-        <v>203598.5023891251</v>
+        <v>295433.824968057</v>
       </c>
       <c r="AF6" t="n">
         <v>1.369112079574034e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>184167.3470734577</v>
+        <v>267238.0353571703</v>
       </c>
     </row>
     <row r="7">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.9006001467067</v>
+        <v>216.0197066318571</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.7323701514926</v>
+        <v>295.5676927304245</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.2884386844694</v>
+        <v>267.3591269681821</v>
       </c>
       <c r="AD7" t="n">
-        <v>148900.6001467067</v>
+        <v>216019.7066318571</v>
       </c>
       <c r="AE7" t="n">
-        <v>203732.3701514926</v>
+        <v>295567.6927304245</v>
       </c>
       <c r="AF7" t="n">
         <v>1.368022130660053e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>184288.4386844694</v>
+        <v>267359.1269681821</v>
       </c>
     </row>
   </sheetData>
@@ -9101,28 +9101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.7805473706364</v>
+        <v>285.5388760450231</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.9803144912037</v>
+        <v>390.6868872909551</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.0228950030118</v>
+        <v>353.4002791003957</v>
       </c>
       <c r="AD2" t="n">
-        <v>198780.5473706364</v>
+        <v>285538.8760450231</v>
       </c>
       <c r="AE2" t="n">
-        <v>271980.3144912038</v>
+        <v>390686.8872909551</v>
       </c>
       <c r="AF2" t="n">
         <v>1.019570089214607e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>246022.8950030118</v>
+        <v>353400.2791003957</v>
       </c>
     </row>
     <row r="3">
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.1585504405066</v>
+        <v>241.6830290855917</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.2914120455758</v>
+        <v>330.6813826974876</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.5492141241123</v>
+        <v>299.1216156471733</v>
       </c>
       <c r="AD3" t="n">
-        <v>174158.5504405066</v>
+        <v>241683.0290855917</v>
       </c>
       <c r="AE3" t="n">
-        <v>238291.4120455758</v>
+        <v>330681.3826974876</v>
       </c>
       <c r="AF3" t="n">
         <v>1.165370899733957e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>215549.2141241123</v>
+        <v>299121.6156471733</v>
       </c>
     </row>
     <row r="4">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.7489237380456</v>
+        <v>230.2392369643499</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.6802574340716</v>
+        <v>315.0234814527356</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.427966198332</v>
+        <v>284.958082521213</v>
       </c>
       <c r="AD4" t="n">
-        <v>162748.9237380456</v>
+        <v>230239.2369643499</v>
       </c>
       <c r="AE4" t="n">
-        <v>222680.2574340716</v>
+        <v>315023.4814527356</v>
       </c>
       <c r="AF4" t="n">
         <v>1.218578279683477e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>201427.966198332</v>
+        <v>284958.082521213</v>
       </c>
     </row>
     <row r="5">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.8761281710227</v>
+        <v>229.366441397327</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.4860600342486</v>
+        <v>313.8292840529125</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.3477413222811</v>
+        <v>283.8778576451621</v>
       </c>
       <c r="AD5" t="n">
-        <v>161876.1281710227</v>
+        <v>229366.441397327</v>
       </c>
       <c r="AE5" t="n">
-        <v>221486.0600342486</v>
+        <v>313829.2840529125</v>
       </c>
       <c r="AF5" t="n">
         <v>1.241300220211469e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>200347.7413222811</v>
+        <v>283877.8576451621</v>
       </c>
     </row>
     <row r="6">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.1295005408295</v>
+        <v>228.6198137671337</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.4644911717324</v>
+        <v>312.8077151903963</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.4236695582222</v>
+        <v>282.9537858811032</v>
       </c>
       <c r="AD6" t="n">
-        <v>161129.5005408295</v>
+        <v>228619.8137671337</v>
       </c>
       <c r="AE6" t="n">
-        <v>220464.4911717324</v>
+        <v>312807.7151903963</v>
       </c>
       <c r="AF6" t="n">
         <v>1.254722206528718e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>199423.6695582222</v>
+        <v>282953.7858811032</v>
       </c>
     </row>
     <row r="7">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.8568379116265</v>
+        <v>227.9972305415034</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.4089809645738</v>
+        <v>311.9558693546559</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.7095975181979</v>
+        <v>282.1832390163524</v>
       </c>
       <c r="AD7" t="n">
-        <v>150856.8379116265</v>
+        <v>227997.2305415034</v>
       </c>
       <c r="AE7" t="n">
-        <v>206408.9809645738</v>
+        <v>311955.8693546559</v>
       </c>
       <c r="AF7" t="n">
         <v>1.26547062522352e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>186709.5975181979</v>
+        <v>282183.2390163524</v>
       </c>
     </row>
     <row r="8">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.7385929461076</v>
+        <v>227.8789855759845</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.2471929861512</v>
+        <v>311.7940813762333</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.5632503573651</v>
+        <v>282.0368918555196</v>
       </c>
       <c r="AD8" t="n">
-        <v>150738.5929461076</v>
+        <v>227878.9855759845</v>
       </c>
       <c r="AE8" t="n">
-        <v>206247.1929861512</v>
+        <v>311794.0813762333</v>
       </c>
       <c r="AF8" t="n">
         <v>1.26619485746555e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>186563.2503573651</v>
+        <v>282036.8918555196</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.3386423417886</v>
+        <v>324.8655068830181</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.0547599249458</v>
+        <v>444.4953185720044</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.3681302058985</v>
+        <v>402.0733092205894</v>
       </c>
       <c r="AD2" t="n">
-        <v>227338.6423417886</v>
+        <v>324865.5068830181</v>
       </c>
       <c r="AE2" t="n">
-        <v>311054.7599249458</v>
+        <v>444495.3185720044</v>
       </c>
       <c r="AF2" t="n">
         <v>8.34173865366896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>281368.1302058985</v>
+        <v>402073.3092205894</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.8512011469293</v>
+        <v>267.8865611533967</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.7627890529809</v>
+        <v>366.5342112910612</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.9713930452045</v>
+        <v>331.5527005994381</v>
       </c>
       <c r="AD3" t="n">
-        <v>189851.2011469293</v>
+        <v>267886.5611533967</v>
       </c>
       <c r="AE3" t="n">
-        <v>259762.7890529809</v>
+        <v>366534.2112910612</v>
       </c>
       <c r="AF3" t="n">
         <v>9.918801220936699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>234971.3930452045</v>
+        <v>331552.7005994382</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.1164369051519</v>
+        <v>256.1176314928351</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.7067669161282</v>
+        <v>350.4314425207826</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.4477351263193</v>
+        <v>316.9867574803224</v>
       </c>
       <c r="AD4" t="n">
-        <v>178116.4369051518</v>
+        <v>256117.6314928351</v>
       </c>
       <c r="AE4" t="n">
-        <v>243706.7669161282</v>
+        <v>350431.4425207826</v>
       </c>
       <c r="AF4" t="n">
         <v>1.038716376090947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>220447.7351263193</v>
+        <v>316986.7574803223</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.8486518788556</v>
+        <v>244.9171662742433</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.2896863435656</v>
+        <v>335.1064718790614</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.5020390855886</v>
+        <v>303.1243805279107</v>
       </c>
       <c r="AD5" t="n">
-        <v>166848.6518788556</v>
+        <v>244917.1662742433</v>
       </c>
       <c r="AE5" t="n">
-        <v>228289.6863435656</v>
+        <v>335106.4718790614</v>
       </c>
       <c r="AF5" t="n">
         <v>1.072514529428709e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>206502.0390855886</v>
+        <v>303124.3805279107</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.432724921203</v>
+        <v>244.5012393165907</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.7205967307033</v>
+        <v>334.5373822661991</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.9872625866554</v>
+        <v>302.6096040289775</v>
       </c>
       <c r="AD6" t="n">
-        <v>166432.724921203</v>
+        <v>244501.2393165907</v>
       </c>
       <c r="AE6" t="n">
-        <v>227720.5967307033</v>
+        <v>334537.3822661991</v>
       </c>
       <c r="AF6" t="n">
         <v>1.079781163161076e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>205987.2625866554</v>
+        <v>302609.6040289775</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.6445354843182</v>
+        <v>243.7130498797059</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.6421611706942</v>
+        <v>333.45894670619</v>
       </c>
       <c r="AC7" t="n">
-        <v>205.0117514028994</v>
+        <v>301.6340928452215</v>
       </c>
       <c r="AD7" t="n">
-        <v>165644.5354843182</v>
+        <v>243713.0498797059</v>
       </c>
       <c r="AE7" t="n">
-        <v>226642.1611706942</v>
+        <v>333458.94670619</v>
       </c>
       <c r="AF7" t="n">
         <v>1.094074465582999e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>205011.7514028994</v>
+        <v>301634.0928452215</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.0532291334811</v>
+        <v>233.4272393896593</v>
       </c>
       <c r="AB8" t="n">
-        <v>225.8331097348842</v>
+        <v>319.3854470157825</v>
       </c>
       <c r="AC8" t="n">
-        <v>204.279914700612</v>
+        <v>288.9037482129813</v>
       </c>
       <c r="AD8" t="n">
-        <v>165053.2291334811</v>
+        <v>233427.2393896593</v>
       </c>
       <c r="AE8" t="n">
-        <v>225833.1097348842</v>
+        <v>319385.4470157825</v>
       </c>
       <c r="AF8" t="n">
         <v>1.105322057846139e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>204279.914700612</v>
+        <v>288903.7482129813</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>164.3937788098516</v>
+        <v>232.6663038395446</v>
       </c>
       <c r="AB9" t="n">
-        <v>224.9308207091998</v>
+        <v>318.3443014260089</v>
       </c>
       <c r="AC9" t="n">
-        <v>203.463738873168</v>
+        <v>287.9619680970383</v>
       </c>
       <c r="AD9" t="n">
-        <v>164393.7788098516</v>
+        <v>232666.3038395446</v>
       </c>
       <c r="AE9" t="n">
-        <v>224930.8207091998</v>
+        <v>318344.3014260089</v>
       </c>
       <c r="AF9" t="n">
         <v>1.115394436694476e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>203463.738873168</v>
+        <v>287961.9680970383</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>164.4143895363785</v>
+        <v>232.6869145660715</v>
       </c>
       <c r="AB10" t="n">
-        <v>224.9590212145149</v>
+        <v>318.372501931324</v>
       </c>
       <c r="AC10" t="n">
-        <v>203.4892479618356</v>
+        <v>287.9874771857058</v>
       </c>
       <c r="AD10" t="n">
-        <v>164414.3895363784</v>
+        <v>232686.9145660715</v>
       </c>
       <c r="AE10" t="n">
-        <v>224959.0212145149</v>
+        <v>318372.501931324</v>
       </c>
       <c r="AF10" t="n">
         <v>1.114779141712904e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>203489.2479618356</v>
+        <v>287987.4771857058</v>
       </c>
     </row>
   </sheetData>
@@ -11179,28 +11179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.3625704421563</v>
+        <v>247.5205063558038</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.465828861903</v>
+        <v>338.6684766299093</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.0887392302483</v>
+        <v>306.3464325446438</v>
       </c>
       <c r="AD2" t="n">
-        <v>171362.5704421563</v>
+        <v>247520.5063558038</v>
       </c>
       <c r="AE2" t="n">
-        <v>234465.828861903</v>
+        <v>338668.4766299093</v>
       </c>
       <c r="AF2" t="n">
         <v>1.277539738397899e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>212088.7392302483</v>
+        <v>306346.4325446439</v>
       </c>
     </row>
     <row r="3">
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.262677076925</v>
+        <v>224.8335511936621</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.5419768330952</v>
+        <v>307.6271836992593</v>
       </c>
       <c r="AC3" t="n">
-        <v>195.8755144827799</v>
+        <v>278.2676770445569</v>
       </c>
       <c r="AD3" t="n">
-        <v>158262.677076925</v>
+        <v>224833.5511936621</v>
       </c>
       <c r="AE3" t="n">
-        <v>216541.9768330952</v>
+        <v>307627.1836992592</v>
       </c>
       <c r="AF3" t="n">
         <v>1.424354291255197e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>195875.5144827799</v>
+        <v>278267.6770445569</v>
       </c>
     </row>
     <row r="4">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.4814775993524</v>
+        <v>214.119671523794</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.7906640749353</v>
+        <v>292.9679808719408</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.5320463106566</v>
+        <v>265.0075279607528</v>
       </c>
       <c r="AD4" t="n">
-        <v>147481.4775993524</v>
+        <v>214119.6715237939</v>
       </c>
       <c r="AE4" t="n">
-        <v>201790.6640749353</v>
+        <v>292967.9808719408</v>
       </c>
       <c r="AF4" t="n">
         <v>1.462062773065357e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>182532.0463106566</v>
+        <v>265007.5279607528</v>
       </c>
     </row>
     <row r="5">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.7898192734456</v>
+        <v>213.3265279714019</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.8443066396183</v>
+        <v>291.8827668725347</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.6760079007449</v>
+        <v>264.0258852623421</v>
       </c>
       <c r="AD5" t="n">
-        <v>146789.8192734456</v>
+        <v>213326.5279714019</v>
       </c>
       <c r="AE5" t="n">
-        <v>200844.3066396183</v>
+        <v>291882.7668725346</v>
       </c>
       <c r="AF5" t="n">
         <v>1.485020764533586e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>181676.0079007449</v>
+        <v>264025.8852623421</v>
       </c>
     </row>
     <row r="6">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.8512415099833</v>
+        <v>213.3879502079396</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.9283472534069</v>
+        <v>291.9668074863232</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.7520277963053</v>
+        <v>264.1019051579025</v>
       </c>
       <c r="AD6" t="n">
-        <v>146851.2415099833</v>
+        <v>213387.9502079396</v>
       </c>
       <c r="AE6" t="n">
-        <v>200928.3472534069</v>
+        <v>291966.8074863232</v>
       </c>
       <c r="AF6" t="n">
         <v>1.484706271499774e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>181752.0277963053</v>
+        <v>264101.9051579025</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.9710797665551</v>
+        <v>221.7102935393774</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.4065122949104</v>
+        <v>303.353804788266</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0392942794663</v>
+        <v>274.4021434191026</v>
       </c>
       <c r="AD2" t="n">
-        <v>155971.079766555</v>
+        <v>221710.2935393774</v>
       </c>
       <c r="AE2" t="n">
-        <v>213406.5122949104</v>
+        <v>303353.804788266</v>
       </c>
       <c r="AF2" t="n">
         <v>1.570659159074346e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>193039.2942794663</v>
+        <v>274402.1434191026</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0388058086552</v>
+        <v>209.7438541626967</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.0802486509455</v>
+        <v>286.9807945110533</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2711863236213</v>
+        <v>259.5917502630776</v>
       </c>
       <c r="AD3" t="n">
-        <v>144038.8058086552</v>
+        <v>209743.8541626967</v>
       </c>
       <c r="AE3" t="n">
-        <v>197080.2486509455</v>
+        <v>286980.7945110533</v>
       </c>
       <c r="AF3" t="n">
         <v>1.704157468661653e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178271.1863236213</v>
+        <v>259591.7502630776</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.3749587465377</v>
+        <v>199.7474045694943</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.1719438136914</v>
+        <v>273.3032111654095</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.4495688252206</v>
+        <v>247.2195362753289</v>
       </c>
       <c r="AD4" t="n">
-        <v>143374.9587465377</v>
+        <v>199747.4045694942</v>
       </c>
       <c r="AE4" t="n">
-        <v>196171.9438136914</v>
+        <v>273303.2111654095</v>
       </c>
       <c r="AF4" t="n">
         <v>1.73379468648327e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>177449.5688252206</v>
+        <v>247219.5362753289</v>
       </c>
     </row>
   </sheetData>
@@ -21662,28 +21662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.2902054299413</v>
+        <v>207.4319773535066</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.6877364699862</v>
+        <v>283.8175826679143</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.1070121473</v>
+        <v>256.7304309186512</v>
       </c>
       <c r="AD2" t="n">
-        <v>142290.2054299413</v>
+        <v>207431.9773535066</v>
       </c>
       <c r="AE2" t="n">
-        <v>194687.7364699862</v>
+        <v>283817.5826679143</v>
       </c>
       <c r="AF2" t="n">
         <v>1.871781392794455e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176107.0121473</v>
+        <v>256730.4309186512</v>
       </c>
     </row>
     <row r="3">
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.5279939930492</v>
+        <v>196.6356004978336</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.9624039867784</v>
+        <v>269.0455035514589</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.787044729151</v>
+        <v>243.3681783003222</v>
       </c>
       <c r="AD3" t="n">
-        <v>131527.9939930492</v>
+        <v>196635.6004978336</v>
       </c>
       <c r="AE3" t="n">
-        <v>179962.4039867784</v>
+        <v>269045.5035514589</v>
       </c>
       <c r="AF3" t="n">
         <v>1.962954492824967e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>162787.044729151</v>
+        <v>243368.1783003222</v>
       </c>
     </row>
   </sheetData>
@@ -22065,28 +22065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.2292222899422</v>
+        <v>190.9023606141515</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.3948319461389</v>
+        <v>261.2010318099164</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.6055707920415</v>
+        <v>236.2723719320048</v>
       </c>
       <c r="AD2" t="n">
-        <v>136229.2222899421</v>
+        <v>190902.3606141515</v>
       </c>
       <c r="AE2" t="n">
-        <v>186394.8319461389</v>
+        <v>261201.0318099164</v>
       </c>
       <c r="AF2" t="n">
         <v>2.564357436000282e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168605.5707920415</v>
+        <v>236272.3719320048</v>
       </c>
     </row>
   </sheetData>
@@ -22362,28 +22362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.8667548996989</v>
+        <v>273.4165062108751</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.6793380330463</v>
+        <v>374.100526082661</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.2776608594516</v>
+        <v>338.3968969267171</v>
       </c>
       <c r="AD2" t="n">
-        <v>186866.7548996989</v>
+        <v>273416.5062108751</v>
       </c>
       <c r="AE2" t="n">
-        <v>255679.3380330463</v>
+        <v>374100.526082661</v>
       </c>
       <c r="AF2" t="n">
         <v>1.07649406315656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>231277.6608594516</v>
+        <v>338396.8969267171</v>
       </c>
     </row>
     <row r="3">
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.7916777919899</v>
+        <v>239.7209939109456</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.7387554168539</v>
+        <v>327.9968396126553</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.48088121574</v>
+        <v>296.6932815865766</v>
       </c>
       <c r="AD3" t="n">
-        <v>162791.6777919899</v>
+        <v>239720.9939109456</v>
       </c>
       <c r="AE3" t="n">
-        <v>222738.7554168539</v>
+        <v>327996.8396126553</v>
       </c>
       <c r="AF3" t="n">
         <v>1.224732179159603e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>201480.88121574</v>
+        <v>296693.2815865766</v>
       </c>
     </row>
     <row r="4">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.4793710982622</v>
+        <v>228.7550976360773</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.9431995036113</v>
+        <v>312.9928165481878</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.8566906387782</v>
+        <v>283.1212214250986</v>
       </c>
       <c r="AD4" t="n">
-        <v>161479.3710982623</v>
+        <v>228755.0976360773</v>
       </c>
       <c r="AE4" t="n">
-        <v>220943.1995036113</v>
+        <v>312992.8165481878</v>
       </c>
       <c r="AF4" t="n">
         <v>1.267992654703027e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>199856.6906387781</v>
+        <v>283121.2214250985</v>
       </c>
     </row>
     <row r="5">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.6280827533812</v>
+        <v>227.9038092911963</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.7784292339545</v>
+        <v>311.828046278531</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.8030844088916</v>
+        <v>282.0676151952121</v>
       </c>
       <c r="AD5" t="n">
-        <v>160628.0827533812</v>
+        <v>227903.8092911963</v>
       </c>
       <c r="AE5" t="n">
-        <v>219778.4292339545</v>
+        <v>311828.046278531</v>
       </c>
       <c r="AF5" t="n">
         <v>1.288871262590779e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>198803.0844088916</v>
+        <v>282067.6151952121</v>
       </c>
     </row>
     <row r="6">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.9966311442847</v>
+        <v>217.3396774898041</v>
       </c>
       <c r="AB6" t="n">
-        <v>205.2320081158531</v>
+        <v>297.3737350912711</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.644953306267</v>
+        <v>268.9928031809064</v>
       </c>
       <c r="AD6" t="n">
-        <v>149996.6311442847</v>
+        <v>217339.6774898041</v>
       </c>
       <c r="AE6" t="n">
-        <v>205232.0081158531</v>
+        <v>297373.7350912711</v>
       </c>
       <c r="AF6" t="n">
         <v>1.313187881244048e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>185644.953306267</v>
+        <v>268992.8031809065</v>
       </c>
     </row>
     <row r="7">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.9202713903742</v>
+        <v>217.2633177358936</v>
       </c>
       <c r="AB7" t="n">
-        <v>205.1275293317982</v>
+        <v>297.2692563072162</v>
       </c>
       <c r="AC7" t="n">
-        <v>185.5504458307254</v>
+        <v>268.8982957053648</v>
       </c>
       <c r="AD7" t="n">
-        <v>149920.2713903742</v>
+        <v>217263.3177358936</v>
       </c>
       <c r="AE7" t="n">
-        <v>205127.5293317982</v>
+        <v>297269.2563072162</v>
       </c>
       <c r="AF7" t="n">
         <v>1.3133270719633e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>185550.4458307254</v>
+        <v>268898.2957053648</v>
       </c>
     </row>
   </sheetData>
@@ -23189,28 +23189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.8059478499173</v>
+        <v>312.1350703607383</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.906974417717</v>
+        <v>427.0769736949995</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.8569052804061</v>
+        <v>386.3173467318452</v>
       </c>
       <c r="AD2" t="n">
-        <v>214805.9478499173</v>
+        <v>312135.0703607383</v>
       </c>
       <c r="AE2" t="n">
-        <v>293906.974417717</v>
+        <v>427076.9736949995</v>
       </c>
       <c r="AF2" t="n">
         <v>8.803807196763143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>265856.9052804061</v>
+        <v>386317.3467318452</v>
       </c>
     </row>
     <row r="3">
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.700552464686</v>
+        <v>266.5238630006633</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.1884207628992</v>
+        <v>364.6697075604918</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.5472802550879</v>
+        <v>329.8661424880668</v>
       </c>
       <c r="AD3" t="n">
-        <v>188700.552464686</v>
+        <v>266523.8630006632</v>
       </c>
       <c r="AE3" t="n">
-        <v>258188.4207628992</v>
+        <v>364669.7075604918</v>
       </c>
       <c r="AF3" t="n">
         <v>1.022956162378259e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>233547.2802550879</v>
+        <v>329866.1424880668</v>
       </c>
     </row>
     <row r="4">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.4392767430854</v>
+        <v>244.5604239048803</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.4120023913057</v>
+        <v>334.6183612309367</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.3719797070228</v>
+        <v>302.6828544749753</v>
       </c>
       <c r="AD4" t="n">
-        <v>176439.2767430854</v>
+        <v>244560.4239048803</v>
       </c>
       <c r="AE4" t="n">
-        <v>241412.0023913057</v>
+        <v>334618.3612309367</v>
       </c>
       <c r="AF4" t="n">
         <v>1.085647349229691e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>218371.9797070228</v>
+        <v>302682.8544749753</v>
       </c>
     </row>
     <row r="5">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.7556418187167</v>
+        <v>243.6121067436141</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.7941817590836</v>
+        <v>333.3208318540925</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.1492633596952</v>
+        <v>301.5091594807628</v>
       </c>
       <c r="AD5" t="n">
-        <v>165755.6418187167</v>
+        <v>243612.1067436141</v>
       </c>
       <c r="AE5" t="n">
-        <v>226794.1817590836</v>
+        <v>333320.8318540925</v>
       </c>
       <c r="AF5" t="n">
         <v>1.105959570468544e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>205149.2633596952</v>
+        <v>301509.1594807628</v>
       </c>
     </row>
     <row r="6">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.7960477626361</v>
+        <v>232.9845147321354</v>
       </c>
       <c r="AB6" t="n">
-        <v>225.4812228372529</v>
+        <v>318.7796916077252</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.9616113946142</v>
+        <v>288.3558052508857</v>
       </c>
       <c r="AD6" t="n">
-        <v>164796.0477626361</v>
+        <v>232984.5147321354</v>
       </c>
       <c r="AE6" t="n">
-        <v>225481.2228372529</v>
+        <v>318779.6916077252</v>
       </c>
       <c r="AF6" t="n">
         <v>1.129296614746373e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>203961.6113946142</v>
+        <v>288355.8052508857</v>
       </c>
     </row>
     <row r="7">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.260289788648</v>
+        <v>232.3472715316621</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.7481751412691</v>
+        <v>317.9077873476521</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.2985247418959</v>
+        <v>287.5671143096683</v>
       </c>
       <c r="AD7" t="n">
-        <v>164260.289788648</v>
+        <v>232347.2715316621</v>
       </c>
       <c r="AE7" t="n">
-        <v>224748.1751412691</v>
+        <v>317907.7873476521</v>
       </c>
       <c r="AF7" t="n">
         <v>1.138610051171989e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>203298.5247418959</v>
+        <v>287567.1143096684</v>
       </c>
     </row>
     <row r="8">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>163.7591808277846</v>
+        <v>231.8461625707988</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.0625357536491</v>
+        <v>317.2221479600322</v>
       </c>
       <c r="AC8" t="n">
-        <v>202.6783218151293</v>
+        <v>286.9469113829018</v>
       </c>
       <c r="AD8" t="n">
-        <v>163759.1808277846</v>
+        <v>231846.1625707988</v>
       </c>
       <c r="AE8" t="n">
-        <v>224062.5357536491</v>
+        <v>317222.1479600322</v>
       </c>
       <c r="AF8" t="n">
         <v>1.140848797537634e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>202678.3218151293</v>
+        <v>286946.9113829018</v>
       </c>
     </row>
     <row r="9">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>163.3253248000938</v>
+        <v>231.4123065431079</v>
       </c>
       <c r="AB9" t="n">
-        <v>223.4689147961857</v>
+        <v>316.6285270025688</v>
       </c>
       <c r="AC9" t="n">
-        <v>202.1413552086937</v>
+        <v>286.4099447764662</v>
       </c>
       <c r="AD9" t="n">
-        <v>163325.3248000938</v>
+        <v>231412.3065431079</v>
       </c>
       <c r="AE9" t="n">
-        <v>223468.9147961857</v>
+        <v>316628.5270025688</v>
       </c>
       <c r="AF9" t="n">
         <v>1.150709343327888e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH9" t="n">
-        <v>202141.3552086937</v>
+        <v>286409.9447764662</v>
       </c>
     </row>
   </sheetData>
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1558597898395</v>
+        <v>197.3635452939987</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.557965903202</v>
+        <v>270.0415097362294</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.0394512626751</v>
+        <v>244.269127052722</v>
       </c>
       <c r="AD2" t="n">
-        <v>134155.8597898395</v>
+        <v>197363.5452939987</v>
       </c>
       <c r="AE2" t="n">
-        <v>183557.965903202</v>
+        <v>270041.5097362294</v>
       </c>
       <c r="AF2" t="n">
         <v>2.894428928879457e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>166039.4512626751</v>
+        <v>244269.127052722</v>
       </c>
     </row>
   </sheetData>
@@ -24525,28 +24525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6505530739654</v>
+        <v>233.1612505392998</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.7044417672412</v>
+        <v>319.0215093361209</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1179125881229</v>
+        <v>288.5745442346767</v>
       </c>
       <c r="AD2" t="n">
-        <v>157650.5530739654</v>
+        <v>233161.2505392998</v>
       </c>
       <c r="AE2" t="n">
-        <v>215704.4417672412</v>
+        <v>319021.5093361209</v>
       </c>
       <c r="AF2" t="n">
         <v>1.471067113406566e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>195117.9125881229</v>
+        <v>288574.5442346767</v>
       </c>
     </row>
     <row r="3">
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.6218017238657</v>
+        <v>211.7235567474665</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.2461734989863</v>
+        <v>289.689510925848</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.2303983440605</v>
+        <v>262.0419505849525</v>
       </c>
       <c r="AD3" t="n">
-        <v>145621.8017238657</v>
+        <v>211723.5567474665</v>
       </c>
       <c r="AE3" t="n">
-        <v>199246.1734989863</v>
+        <v>289689.510925848</v>
       </c>
       <c r="AF3" t="n">
         <v>1.595975864567819e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>180230.3983440605</v>
+        <v>262041.9505849525</v>
       </c>
     </row>
     <row r="4">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.6688339068941</v>
+        <v>210.6691037040097</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.9422808898335</v>
+        <v>288.2467617526059</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.0509474155</v>
+        <v>260.736895367893</v>
       </c>
       <c r="AD4" t="n">
-        <v>144668.8339068941</v>
+        <v>210669.1037040097</v>
       </c>
       <c r="AE4" t="n">
-        <v>197942.2808898335</v>
+        <v>288246.7617526059</v>
       </c>
       <c r="AF4" t="n">
         <v>1.633145741311703e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>179050.9474155</v>
+        <v>260736.895367893</v>
       </c>
     </row>
     <row r="5">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.682622587412</v>
+        <v>210.6828923845276</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.9611471708318</v>
+        <v>288.2656280336042</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.0680131251188</v>
+        <v>260.7539610775118</v>
       </c>
       <c r="AD5" t="n">
-        <v>144682.622587412</v>
+        <v>210682.8923845276</v>
       </c>
       <c r="AE5" t="n">
-        <v>197961.1471708318</v>
+        <v>288265.6280336042</v>
       </c>
       <c r="AF5" t="n">
         <v>1.634044006401956e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>179068.0131251188</v>
+        <v>260753.9610775118</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.9472502100711</v>
+        <v>259.3195139953464</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.3164988003572</v>
+        <v>354.8123994179708</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.4266434763365</v>
+        <v>320.9496019998492</v>
       </c>
       <c r="AD2" t="n">
-        <v>182947.2502100711</v>
+        <v>259319.5139953464</v>
       </c>
       <c r="AE2" t="n">
-        <v>250316.4988003572</v>
+        <v>354812.3994179708</v>
       </c>
       <c r="AF2" t="n">
         <v>1.2044991607191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>226426.6434763365</v>
+        <v>320949.6019998491</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.9745379637083</v>
+        <v>226.7918537998583</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.8842204203633</v>
+        <v>310.3066197192692</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.9942176294393</v>
+        <v>280.6913914514301</v>
       </c>
       <c r="AD3" t="n">
-        <v>159974.5379637083</v>
+        <v>226791.8537998583</v>
       </c>
       <c r="AE3" t="n">
-        <v>218884.2204203633</v>
+        <v>310306.6197192692</v>
       </c>
       <c r="AF3" t="n">
         <v>1.344643146861868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>197994.2176294393</v>
+        <v>280691.3914514302</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.9147801373793</v>
+        <v>215.7994157812337</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.7517718403079</v>
+        <v>295.2662810700553</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.3059887033347</v>
+        <v>267.0864816136445</v>
       </c>
       <c r="AD4" t="n">
-        <v>148914.7801373793</v>
+        <v>215799.4157812337</v>
       </c>
       <c r="AE4" t="n">
-        <v>203751.7718403079</v>
+        <v>295266.2810700553</v>
       </c>
       <c r="AF4" t="n">
         <v>1.392685953927774e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>184305.9887033347</v>
+        <v>267086.4816136445</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.9926445796317</v>
+        <v>214.8772802234861</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.4900652884487</v>
+        <v>294.0045745181961</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.1646976539682</v>
+        <v>265.9451905642781</v>
       </c>
       <c r="AD5" t="n">
-        <v>147992.6445796317</v>
+        <v>214877.2802234861</v>
       </c>
       <c r="AE5" t="n">
-        <v>202490.0652884487</v>
+        <v>294004.5745181961</v>
       </c>
       <c r="AF5" t="n">
         <v>1.419080984663536e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>183164.6976539682</v>
+        <v>265945.190564278</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.6189431794566</v>
+        <v>214.4020935968258</v>
       </c>
       <c r="AB6" t="n">
-        <v>201.9787505461872</v>
+        <v>293.3544032118453</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.7021820730733</v>
+        <v>265.3570706948841</v>
       </c>
       <c r="AD6" t="n">
-        <v>147618.9431794566</v>
+        <v>214402.0935968258</v>
       </c>
       <c r="AE6" t="n">
-        <v>201978.7505461872</v>
+        <v>293354.4032118453</v>
       </c>
       <c r="AF6" t="n">
         <v>1.43019000433347e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>182702.1820730733</v>
+        <v>265357.0706948841</v>
       </c>
     </row>
   </sheetData>
